--- a/dokumentation/VT_Benchmark_v01.xlsx
+++ b/dokumentation/VT_Benchmark_v01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -62,18 +62,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,15 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -411,19 +401,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I10"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="3" max="7" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -449,60 +439,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5">
-        <v>8.14</v>
-      </c>
-      <c r="D3" s="5">
-        <v>11.38</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1.77</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2.59</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.1615</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
+        <v>47.44</v>
+      </c>
+      <c r="D3" s="1">
+        <v>87.8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="1">
+        <v>24.19</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>47.44</v>
+        <v>103.97</v>
       </c>
       <c r="D4" s="1">
-        <v>87.8</v>
+        <v>198.82</v>
       </c>
       <c r="E4" s="1">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="F4" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G4" s="1">
-        <v>24.19</v>
+        <v>54.93</v>
       </c>
       <c r="H4" s="2">
-        <v>0.32929999999999998</v>
+        <v>0.31359999999999999</v>
       </c>
       <c r="I4" s="3">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
@@ -528,42 +517,59 @@
         <v>882</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1">
-        <v>345.74200000000002</v>
+        <v>231.74</v>
       </c>
       <c r="D6" s="1">
-        <v>640.59</v>
+        <v>427.07</v>
       </c>
       <c r="E6" s="1">
-        <v>3.63</v>
+        <v>2.38</v>
       </c>
       <c r="F6" s="1">
         <v>0.02</v>
       </c>
       <c r="G6" s="1">
+        <v>115.93</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.36520000000000002</v>
+      </c>
+      <c r="I6" s="3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1">
+        <v>345.74200000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>640.59</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G7" s="1">
         <v>172.89</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="2">
         <v>0.44829999999999998</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="3">
         <v>727</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -572,7 +578,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -581,7 +587,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -590,6 +596,15 @@
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dokumentation/VT_Benchmark_v01.xlsx
+++ b/dokumentation/VT_Benchmark_v01.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14232" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RTT max</t>
   </si>
@@ -42,7 +43,19 @@
     <t>Freier Speicher</t>
   </si>
   <si>
-    <t>Clients</t>
+    <t>Anzahl Clients</t>
+  </si>
+  <si>
+    <t>RTT min SD positiv</t>
+  </si>
+  <si>
+    <t>RTT min SD negativ</t>
+  </si>
+  <si>
+    <t>RTT SD positiv</t>
+  </si>
+  <si>
+    <t>RTT  SD negativ</t>
   </si>
 </sst>
 </file>
@@ -102,6 +115,5025 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ØRTT gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>47.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>345.74200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BFB-4BEA-B301-0AFC90893C90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTT max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>351.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>427.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BFB-4BEA-B301-0AFC90893C90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTT min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0BFB-4BEA-B301-0AFC90893C90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="550388392"/>
+        <c:axId val="550386752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="550388392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550386752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="550386752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00\ &quot;s&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550388392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ØRTT gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>47.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>345.74200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6076-46BB-8501-7C50199F7C93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTT max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>351.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>427.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6076-46BB-8501-7C50199F7C93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTT min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6076-46BB-8501-7C50199F7C93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ØRTT Server</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6076-46BB-8501-7C50199F7C93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTT SD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6076-46BB-8501-7C50199F7C93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="513533824"/>
+        <c:axId val="513532512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="513533824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513532512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="513532512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00\ &quot;s&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513533824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTT max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>351.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>427.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A727-4F66-A431-C372F56CB76C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTT min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A727-4F66-A431-C372F56CB76C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512526696"/>
+        <c:axId val="512530632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512526696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512530632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512530632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00\ &quot;s&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512526696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Standardabweichung</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> der durchschnittlichen RTT</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ØRTT gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>47.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>345.74200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4F5-41FE-B17F-EA7E654B0E77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTT SD positiv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$3:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>71.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>518.63200000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B4F5-41FE-B17F-EA7E654B0E77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTT  SD negativ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$3:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23.249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.460000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172.85200000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B4F5-41FE-B17F-EA7E654B0E77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="559829832"/>
+        <c:axId val="559834752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="559829832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559834752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="559834752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00\ &quot;s&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559829832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120535</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>173874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>83126</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Diagramm 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AD61A7-FCB0-4363-A030-E00554EF1830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0713F22-C56B-432B-A4C2-833B96232DFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBADEF8-DF8E-4356-93E8-73A2088BDC57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rechteck 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8053F7-B39F-4241-9D5C-7FC4D5644E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1036320" y="3688080"/>
+          <a:ext cx="266700" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>548638</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rechtwinkliges Dreieck 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BA47D2-4FE4-4455-B357-128F8E9F3E7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12123420" y="6819900"/>
+          <a:ext cx="4732018" cy="2125980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+            <a:alpha val="38000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rechteck 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCBD4F0E-A425-4C84-B191-221E59CF0590}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12153900" y="8671560"/>
+          <a:ext cx="419100" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160018</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>108063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Diagramm 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763B3863-2C15-43B8-830A-6B3B42A22747}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,212 +5433,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC66" sqref="AC66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="7" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="2" max="6" width="12.88671875" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
+      <c r="B3" s="1">
+        <v>47.44</v>
+      </c>
       <c r="C3" s="1">
-        <v>47.44</v>
+        <v>87.8</v>
       </c>
       <c r="D3" s="1">
-        <v>87.8</v>
+        <v>1.83</v>
       </c>
       <c r="E3" s="1">
-        <v>1.83</v>
+        <v>0.01</v>
       </c>
       <c r="F3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="1">
         <v>24.19</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G3" s="2">
         <v>0.32929999999999998</v>
       </c>
-      <c r="I3" s="3">
+      <c r="H3" s="3">
         <v>1016</v>
       </c>
+      <c r="I3" s="1">
+        <f>B3+F3</f>
+        <v>71.63</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="array" ref="J3">B3-F3</f>
+        <v>23.249999999999996</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="array" ref="K3">D3+F3</f>
+        <v>26.020000000000003</v>
+      </c>
+      <c r="L3">
+        <f t="array" ref="L3">D3-F3</f>
+        <v>-22.36</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
+      <c r="B4" s="1">
+        <v>103.97</v>
+      </c>
       <c r="C4" s="1">
-        <v>103.97</v>
+        <v>198.82</v>
       </c>
       <c r="D4" s="1">
-        <v>198.82</v>
+        <v>1.79</v>
       </c>
       <c r="E4" s="1">
-        <v>1.79</v>
+        <v>0.02</v>
       </c>
       <c r="F4" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G4" s="1">
         <v>54.93</v>
       </c>
-      <c r="H4" s="2">
+      <c r="G4" s="2">
         <v>0.31359999999999999</v>
       </c>
-      <c r="I4" s="3">
+      <c r="H4" s="3">
         <v>969</v>
       </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I7" si="0">B4+F4</f>
+        <v>158.9</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="array" ref="J4">B4-F4</f>
+        <v>49.04</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="array" ref="K4">D4+F4</f>
+        <v>56.72</v>
+      </c>
+      <c r="L4">
+        <f t="array" ref="L4">D4-F4</f>
+        <v>-53.14</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>50</v>
       </c>
+      <c r="B5" s="1">
+        <v>184.08</v>
+      </c>
       <c r="C5" s="1">
-        <v>184.08</v>
+        <v>351.98</v>
       </c>
       <c r="D5" s="1">
-        <v>351.98</v>
+        <v>2.23</v>
       </c>
       <c r="E5" s="1">
-        <v>2.23</v>
+        <v>0.02</v>
       </c>
       <c r="F5" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G5" s="1">
         <v>93.62</v>
       </c>
-      <c r="H5" s="2">
+      <c r="G5" s="2">
         <v>0.34389999999999998</v>
       </c>
-      <c r="I5" s="3">
+      <c r="H5" s="3">
         <v>882</v>
       </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>277.70000000000005</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="array" ref="J5">B5-F5</f>
+        <v>90.460000000000008</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="array" ref="K5">D5+F5</f>
+        <v>95.850000000000009</v>
+      </c>
+      <c r="L5">
+        <f t="array" ref="L5">D5-F5</f>
+        <v>-91.39</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>75</v>
       </c>
+      <c r="B6" s="1">
+        <v>231.74</v>
+      </c>
       <c r="C6" s="1">
-        <v>231.74</v>
+        <v>427.07</v>
       </c>
       <c r="D6" s="1">
-        <v>427.07</v>
+        <v>2.38</v>
       </c>
       <c r="E6" s="1">
-        <v>2.38</v>
+        <v>0.02</v>
       </c>
       <c r="F6" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G6" s="1">
         <v>115.93</v>
       </c>
-      <c r="H6" s="2">
+      <c r="G6" s="2">
         <v>0.36520000000000002</v>
       </c>
-      <c r="I6" s="3">
+      <c r="H6" s="3">
         <v>820</v>
       </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>347.67</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="array" ref="J6">B6-F6</f>
+        <v>115.81</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="array" ref="K6">D6+F6</f>
+        <v>118.31</v>
+      </c>
+      <c r="L6">
+        <f t="array" ref="L6">D6-F6</f>
+        <v>-113.55000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
+      <c r="B7" s="1">
+        <v>345.74200000000002</v>
+      </c>
       <c r="C7" s="1">
-        <v>345.74200000000002</v>
+        <v>640.59</v>
       </c>
       <c r="D7" s="1">
-        <v>640.59</v>
+        <v>3.63</v>
       </c>
       <c r="E7" s="1">
-        <v>3.63</v>
+        <v>0.02</v>
       </c>
       <c r="F7" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G7" s="1">
         <v>172.89</v>
       </c>
-      <c r="H7" s="2">
+      <c r="G7" s="2">
         <v>0.44829999999999998</v>
       </c>
-      <c r="I7" s="3">
+      <c r="H7" s="3">
         <v>727</v>
       </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>518.63200000000006</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="array" ref="J7">B7-F7</f>
+        <v>172.85200000000003</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="array" ref="K7">D7+F7</f>
+        <v>176.51999999999998</v>
+      </c>
+      <c r="L7">
+        <f t="array" ref="L7">D7-F7</f>
+        <v>-169.26</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>